--- a/Tool/ExeclToScript/Work/TransXlsxTable/AttrCalcRelevance.xlsx
+++ b/Tool/ExeclToScript/Work/TransXlsxTable/AttrCalcRelevance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="24945" windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="DataTable" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t>key</t>
   </si>
@@ -83,64 +83,61 @@
     <t>T</t>
   </si>
   <si>
-    <t>生命</t>
-  </si>
-  <si>
-    <t>速度</t>
-  </si>
-  <si>
-    <t>攻击</t>
-  </si>
-  <si>
-    <t>防御</t>
-  </si>
-  <si>
-    <t>吸血</t>
-  </si>
-  <si>
-    <t>反击</t>
-  </si>
-  <si>
-    <t>连击</t>
-  </si>
-  <si>
-    <t>爆伤</t>
-  </si>
-  <si>
-    <t>闪避</t>
-  </si>
-  <si>
-    <t>暴击</t>
-  </si>
-  <si>
-    <t>击晕</t>
-  </si>
-  <si>
-    <t>最终伤害</t>
-  </si>
-  <si>
-    <t>抗吸血</t>
-  </si>
-  <si>
-    <t>抗反击</t>
-  </si>
-  <si>
-    <t>抗连击</t>
-  </si>
-  <si>
-    <t>抗爆伤</t>
-  </si>
-  <si>
-    <t>抗闪避</t>
-  </si>
-  <si>
-    <t>抗暴击</t>
-  </si>
-  <si>
-    <t>抗击晕</t>
+    <t>物理攻击力</t>
+  </si>
+  <si>
+    <t>魔法攻击力</t>
+  </si>
+  <si>
+    <t>物理防御力</t>
+  </si>
+  <si>
+    <t>魔法防御力</t>
+  </si>
+  <si>
+    <t>护甲穿透</t>
+  </si>
+  <si>
+    <t>魔法穿透</t>
   </si>
   <si>
     <t>最终减伤</t>
+  </si>
+  <si>
+    <t>最终增伤</t>
+  </si>
+  <si>
+    <t>爆伤加成</t>
+  </si>
+  <si>
+    <t>爆伤抵抗</t>
+  </si>
+  <si>
+    <t>移动速度</t>
+  </si>
+  <si>
+    <t>攻击速度</t>
+  </si>
+  <si>
+    <t>暴击几率</t>
+  </si>
+  <si>
+    <t>抗暴击几率</t>
+  </si>
+  <si>
+    <t>命中几率</t>
+  </si>
+  <si>
+    <t>闪避几率</t>
+  </si>
+  <si>
+    <t>最大血量</t>
+  </si>
+  <si>
+    <t>子弹移速</t>
+  </si>
+  <si>
+    <t>当前血量</t>
   </si>
 </sst>
 </file>
@@ -1146,10 +1143,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D5" sqref="D5:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1157,6 +1154,10 @@
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="16.875" customWidth="1"/>
     <col min="3" max="3" width="19.625" customWidth="1"/>
+    <col min="4" max="4" width="9.375" customWidth="1"/>
+    <col min="5" max="5" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1238,19 +1239,19 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
       <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>1</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>2</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -1261,19 +1262,19 @@
         <v>17</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
         <v>4</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>5</v>
-      </c>
-      <c r="F6">
-        <v>6</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
@@ -1284,19 +1285,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
       <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
         <v>7</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>8</v>
-      </c>
-      <c r="F7">
-        <v>9</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -1307,19 +1308,19 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
       </c>
       <c r="D8">
+        <v>9</v>
+      </c>
+      <c r="E8">
         <v>10</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>11</v>
-      </c>
-      <c r="F8">
-        <v>12</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -1330,22 +1331,22 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
       </c>
       <c r="D9">
+        <v>12</v>
+      </c>
+      <c r="E9">
         <v>13</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>14</v>
       </c>
-      <c r="F9">
-        <v>15</v>
-      </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1353,22 +1354,22 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
       </c>
       <c r="D10">
+        <v>15</v>
+      </c>
+      <c r="E10">
         <v>16</v>
       </c>
-      <c r="E10">
-        <v>17</v>
-      </c>
       <c r="F10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1376,19 +1377,19 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
       </c>
       <c r="D11">
+        <v>18</v>
+      </c>
+      <c r="E11">
         <v>19</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>20</v>
-      </c>
-      <c r="F11">
-        <v>21</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -1399,19 +1400,19 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
       <c r="D12">
+        <v>21</v>
+      </c>
+      <c r="E12">
         <v>22</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>23</v>
-      </c>
-      <c r="F12">
-        <v>24</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -1422,19 +1423,19 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
       </c>
       <c r="D13">
+        <v>24</v>
+      </c>
+      <c r="E13">
         <v>25</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>26</v>
-      </c>
-      <c r="F13">
-        <v>27</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -1445,19 +1446,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
       </c>
       <c r="D14">
+        <v>27</v>
+      </c>
+      <c r="E14">
         <v>28</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>29</v>
-      </c>
-      <c r="F14">
-        <v>30</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -1468,22 +1469,22 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
       </c>
       <c r="D15">
+        <v>30</v>
+      </c>
+      <c r="E15">
         <v>31</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>32</v>
       </c>
-      <c r="F15">
-        <v>33</v>
-      </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1491,19 +1492,19 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
       </c>
       <c r="D16">
+        <v>33</v>
+      </c>
+      <c r="E16">
         <v>34</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>35</v>
-      </c>
-      <c r="F16">
-        <v>36</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -1514,19 +1515,19 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
         <v>30</v>
       </c>
       <c r="D17">
+        <v>36</v>
+      </c>
+      <c r="E17">
         <v>37</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>38</v>
-      </c>
-      <c r="F17">
-        <v>39</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -1537,19 +1538,19 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
         <v>31</v>
       </c>
       <c r="D18">
+        <v>39</v>
+      </c>
+      <c r="E18">
         <v>40</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>41</v>
-      </c>
-      <c r="F18">
-        <v>42</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -1560,19 +1561,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
         <v>32</v>
       </c>
       <c r="D19">
+        <v>42</v>
+      </c>
+      <c r="E19">
         <v>43</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>44</v>
-      </c>
-      <c r="F19">
-        <v>45</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -1583,19 +1584,19 @@
         <v>17</v>
       </c>
       <c r="B20">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
         <v>33</v>
       </c>
       <c r="D20">
+        <v>45</v>
+      </c>
+      <c r="E20">
         <v>46</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>47</v>
-      </c>
-      <c r="F20">
-        <v>48</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -1606,22 +1607,22 @@
         <v>17</v>
       </c>
       <c r="B21">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
         <v>34</v>
       </c>
       <c r="D21">
+        <v>48</v>
+      </c>
+      <c r="E21">
         <v>49</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>50</v>
       </c>
-      <c r="F21">
-        <v>51</v>
-      </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1629,19 +1630,19 @@
         <v>17</v>
       </c>
       <c r="B22">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
         <v>35</v>
       </c>
       <c r="D22">
+        <v>51</v>
+      </c>
+      <c r="E22">
         <v>52</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>53</v>
-      </c>
-      <c r="F22">
-        <v>54</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -1652,45 +1653,22 @@
         <v>17</v>
       </c>
       <c r="B23">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
         <v>36</v>
       </c>
       <c r="D23">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="E23">
-        <v>56</v>
+        <v>-1</v>
       </c>
       <c r="F23">
-        <v>57</v>
+        <v>-1</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24">
-        <v>20</v>
-      </c>
-      <c r="C24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24">
-        <v>58</v>
-      </c>
-      <c r="E24">
-        <v>59</v>
-      </c>
-      <c r="F24">
-        <v>60</v>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
